--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.559799999999996</v>
+        <v>6.395199999999994</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.47750000000003</v>
+        <v>-21.59840000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,13 +516,13 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.399299999999999</v>
+        <v>5.545899999999998</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.692999999999994</v>
+        <v>-8.612700000000002</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.3471</v>
+        <v>12.18199999999999</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.6785</v>
+        <v>-8.580800000000002</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,10 +624,10 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.691500000000001</v>
+        <v>-8.558400000000006</v>
       </c>
       <c r="E11" t="n">
-        <v>12.13939999999999</v>
+        <v>12.61409999999999</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.45019999999998</v>
+        <v>-20.54369999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.82049999999999</v>
+        <v>13.10159999999999</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.31710000000001</v>
+        <v>-21.44530000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.006300000000007</v>
+        <v>-8.2456</v>
       </c>
       <c r="E21" t="n">
-        <v>13.10490000000001</v>
+        <v>12.64630000000001</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.39420000000003</v>
+        <v>-21.50600000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.47170000000003</v>
+        <v>-22.37030000000004</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
